--- a/biology/Médecine/Richard_Geigel/Richard_Geigel.xlsx
+++ b/biology/Médecine/Richard_Geigel/Richard_Geigel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Geigel, né le 4 juin 1859 à Wurtzbourg où il est mort le 2 décembre 1930, est un interniste allemand. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il reçoit son doctorat en médecine de l'Université de Wurtzbourg en 1883 avec la thèse Über Variabilität in der Entwicklung der Geschlechtsorgane beim Menschen puis, en 1888, obtient une habilitation[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit son doctorat en médecine de l'Université de Wurtzbourg en 1883 avec la thèse Über Variabilität in der Entwicklung der Geschlechtsorgane beim Menschen puis, en 1888, obtient une habilitation. 
 Il devient en 1898 Professeur associé de balnéothérapie et d'hydrothérapie à Wurtzbourg. 
-Son nom est associé au réflexe de Geigel (chez les femmes), décrit comme une contraction des fibres musculaires au bord supérieur du ligament de Poupart lorsque la face interne de la cuisse est caressée doucement[2]. Il correspond au réflexe crémastérien des hommes[3]. 
+Son nom est associé au réflexe de Geigel (chez les femmes), décrit comme une contraction des fibres musculaires au bord supérieur du ligament de Poupart lorsque la face interne de la cuisse est caressée doucement. Il correspond au réflexe crémastérien des hommes. 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Über Variabilität in der Entwicklung der Geschlechtsorgane beim Menschen (dissertation), 1883
 Wärmeregulation und Kleidung, 1884
@@ -553,7 +569,7 @@
 Die Rückstosselevation bei Insufficienz der Aortenklappen, 1888.
 Ueber Hepatitis suppurativa, 1889
 Die Circulation im Gehirn und ihre Störungen, 1889
-Ueber alternirende Mitralinsufficienz, 1890[4]
+Ueber alternirende Mitralinsufficienz, 1890
 Die Mechanik der Blutversorgung des Gehirns. Eine Studie, 1890
 Leitfaden der diagnostischen Akustik, 1908
 Lehrbuch der Herzkrankheiten, 1920
